--- a/biology/Botanique/Bulbostylis/Bulbostylis.xlsx
+++ b/biology/Botanique/Bulbostylis/Bulbostylis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bulbostylis est un genre de plantes de la famille des Cyperaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (6 août 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (6 août 2014) :
 Bulbostylis abbreviata
 Bulbostylis abortiva
 Bulbostylis acutispicata
@@ -730,7 +744,7 @@
 Bulbostylis wilsonii
 Bulbostylis wombaliensis
 Bulbostylis xerophila
-Selon ITIS      (6 août 2014)[3] :
+Selon ITIS      (6 août 2014) :
 Bulbostylis barbata (Rottb.) C.B. Clarke
 Bulbostylis capillaris (L.) Kunth ex C.B. Clarke
 Bulbostylis ciliatifolia (Elliott) Fernald
@@ -745,7 +759,7 @@
 Bulbostylis subaphylla C.B. Clarke
 Bulbostylis vestita (Kunth) C.B. Clarke
 Bulbostylis warei (Torr.) C.B. Clarke
-Selon World Checklist of Selected Plant Families (WCSP)  (6 août 2014)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (6 août 2014) :
 Bulbostylis abbreviata (Lye) Lye (2010)
 Bulbostylis abortiva (Steud.) C.B.Clarke (1889)
 Bulbostylis acutispicata (Lye) Lye (2010)
@@ -996,7 +1010,7 @@
 Bulbostylis warei (Torr.) C.B.Clarke, Bull. Misc. Inform. Kew (1908)
 Bulbostylis wombaliensis (De Wild.) R.W.Haines (1983)
 Bulbostylis xerophila Cherm. (1921 publ. 1922)
-Selon The Plant List            (6 août 2014)[5] :
+Selon The Plant List            (6 août 2014) :
 Bulbostylis abbreviata (Lye) Lye
 Bulbostylis abortiva (Steud.) C.B.Clarke
 Bulbostylis acutangula Roxb.
@@ -1215,7 +1229,7 @@
 Bulbostylis wilsonii (Britton) Urb.
 Bulbostylis wombaliensis (De Wild.) R.W.Haines
 Bulbostylis xerophila Cherm.
-Selon Tropicos                                           (6 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 Bulbostylis abortiva (Steud.) C.B. Clarke
 Bulbostylis acutangula Roxb.
 Bulbostylis afroorientalis (Lye) R.W. Haines
@@ -1371,7 +1385,7 @@
 Bulbostylis longiradiata Goetgh.
 Bulbostylis lorentzii (Boeckeler) C.B. Clarke
 Bulbostylis macra (Ridl.) C.B. Clarke
-Bulbostylis macro</t>
+Bulbostylis macrostachya (Lye) R</t>
         </is>
       </c>
     </row>
